--- a/SLA.xlsx
+++ b/SLA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359E26C-0AE5-4BDE-8756-2482AD74C743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F200C792-1444-4288-AC6A-486D8E1A8BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Tiempo Respuesta</t>
   </si>
@@ -134,61 +134,28 @@
     <t>B</t>
   </si>
   <si>
-    <t>REQ</t>
-  </si>
-  <si>
-    <t>REQ1000510</t>
-  </si>
-  <si>
-    <t>Marca Preautorizaciones</t>
-  </si>
-  <si>
-    <t>REQ1000511</t>
-  </si>
-  <si>
-    <t>Reporte de Chargebacks Global66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQ1000520 </t>
-  </si>
-  <si>
-    <t>Requerimiento - Global66 - Emisión 3 Tarjetas físicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQ1000521 </t>
-  </si>
-  <si>
-    <t>Modificar Regla de Prevención de Fraude N°54 Perú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQ1000528 </t>
-  </si>
-  <si>
-    <t>Global66 - Reglas de prevención de Fraude</t>
-  </si>
-  <si>
-    <t>REQ1000530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQ1000533 </t>
-  </si>
-  <si>
-    <t>Consulta - Global66 - Aplicación spread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQ1000550 </t>
-  </si>
-  <si>
-    <t>Consulta - Global66 - Rechazo de operación en Perú</t>
-  </si>
-  <si>
-    <t>REQ1000554</t>
-  </si>
-  <si>
     <t>BLOQUEO DE COMERCIO</t>
   </si>
   <si>
-    <t>Acceso a Infinitus Equipo Cx</t>
+    <t>REQ1000560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQ1000569 </t>
+  </si>
+  <si>
+    <t>Cambio código DE39 a MC para código: 9067-Rechazo Mambu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQ1000578 </t>
+  </si>
+  <si>
+    <t>Consulta - Global66 - Rechazo EMV</t>
+  </si>
+  <si>
+    <t>REQ1000581</t>
+  </si>
+  <si>
+    <t>Consulta - Global66 - Cobros Perú</t>
   </si>
 </sst>
 </file>
@@ -646,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="8">
         <v>0.01</v>
@@ -664,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="8">
         <v>0.01</v>
@@ -718,10 +685,10 @@
         <v>29</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -736,10 +703,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="8">
-        <v>0.32</v>
+        <v>0.7</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -786,7 +753,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -797,7 +764,7 @@
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -848,84 +815,84 @@
         <v>26</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="10">
-        <v>45204.595243055555</v>
+        <v>45233.681689814817</v>
       </c>
       <c r="H2" s="10">
-        <v>45204.59652777778</v>
+        <v>45233.684027777781</v>
       </c>
       <c r="I2" s="10">
-        <v>45205.65902777778</v>
+        <v>45236.550405092596</v>
       </c>
       <c r="J2" s="14">
-        <f t="shared" ref="J2:J10" si="0">+H2-G2</f>
-        <v>1.2847222242271528E-3</v>
+        <f>+H2-G2</f>
+        <v>2.3379629637929611E-3</v>
       </c>
       <c r="K2" s="14">
-        <f>+I2-G2-(1*12/24)</f>
-        <v>0.56378472222422715</v>
+        <f>+I2-G2-(4*12/24)</f>
+        <v>0.86871527777839219</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="10">
-        <v>45204.597280092596</v>
+        <v>45238.45208333333</v>
       </c>
       <c r="H3" s="10">
-        <v>45204.597916666666</v>
+        <v>45238.453472222223</v>
       </c>
       <c r="I3" s="10">
-        <v>45205.669444444444</v>
+        <v>45239.448611111111</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" si="0"/>
-        <v>6.3657407008577138E-4</v>
+        <f t="shared" ref="J3:J5" si="0">+H3-G3</f>
+        <v>1.3888888934161514E-3</v>
       </c>
       <c r="K3" s="14">
-        <f>+I3-G3-(1*12/24)</f>
-        <v>0.57216435184818693</v>
+        <f t="shared" ref="K3" si="1">+I3-G3-(1*12/24)</f>
+        <v>0.49652777778101154</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>34</v>
@@ -934,236 +901,124 @@
         <v>32</v>
       </c>
       <c r="G4" s="10">
-        <v>45209.461875000001</v>
+        <v>45246.680185185185</v>
       </c>
       <c r="H4" s="10">
-        <v>45209.463888888888</v>
+        <v>45246.681250000001</v>
       </c>
       <c r="I4" s="10">
-        <v>45210.478472222225</v>
+        <v>45246.770798611113</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>2.0138888867222704E-3</v>
+        <v>1.0648148163454607E-3</v>
       </c>
       <c r="K4" s="14">
-        <f>+I4-G4-(1*12/24)</f>
-        <v>0.51659722222393611</v>
+        <f>+I4-G4-(0*12/24)</f>
+        <v>9.0613425927585922E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="10">
-        <v>45209.515648148146</v>
+        <v>45250.695717592593</v>
       </c>
       <c r="H5" s="10">
-        <v>45209.51666666667</v>
+        <v>45250.697222222225</v>
       </c>
       <c r="I5" s="10">
-        <v>45209.549305555556</v>
+        <v>45250.751388888886</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="0"/>
-        <v>1.0185185237787664E-3</v>
+        <v>1.5046296321088448E-3</v>
       </c>
       <c r="K5" s="14">
-        <f t="shared" ref="K5:K7" si="1">+I5-G5-(0*12/24)</f>
-        <v>3.365740740991896E-2</v>
+        <f>+I5-G5-(0*12/24)</f>
+        <v>5.5671296293439809E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="10">
-        <v>45215.488981481481</v>
-      </c>
-      <c r="H6" s="10">
-        <v>45215.491666666669</v>
-      </c>
-      <c r="I6" s="10">
-        <v>45217.475439814814</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.6851851871469989E-3</v>
-      </c>
-      <c r="K6" s="14">
-        <f>+I6-G6-(2*12/24)</f>
-        <v>0.98645833333284827</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="10">
-        <v>45216.397187499999</v>
-      </c>
-      <c r="H7" s="10">
-        <v>45216.397916666669</v>
-      </c>
-      <c r="I7" s="10">
-        <v>45216.56759259259</v>
-      </c>
-      <c r="J7" s="14">
-        <f t="shared" si="0"/>
-        <v>7.2916666977107525E-4</v>
-      </c>
-      <c r="K7" s="14">
-        <f t="shared" si="1"/>
-        <v>0.17040509259095415</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="10">
-        <v>45216.561111111114</v>
-      </c>
-      <c r="H8" s="10">
-        <v>45216.5625</v>
-      </c>
-      <c r="I8" s="10">
-        <v>45219.450752314813</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="0"/>
-        <v>1.3888888861401938E-3</v>
-      </c>
-      <c r="K8" s="14">
-        <f>+I8-G8-(3*12/24)</f>
-        <v>1.3896412036992842</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="10">
-        <v>45229.715439814812</v>
-      </c>
-      <c r="H9" s="10">
-        <v>45229.716666666667</v>
-      </c>
-      <c r="I9" s="3"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="10">
-        <v>45230.852835648147</v>
-      </c>
-      <c r="H10" s="10">
-        <v>45230.854166666664</v>
-      </c>
-      <c r="I10" s="10">
-        <v>45230.934027777781</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.3310185167938471E-3</v>
-      </c>
-      <c r="K10" s="14">
-        <f>+I10-G10-(0*12/24)</f>
-        <v>8.1192129633564036E-2</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -1191,19 +1046,6 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
